--- a/ReportWebSite/Reports1NF/Templates/zved_zvit.xlsx
+++ b/ReportWebSite/Reports1NF/Templates/zved_zvit.xlsx
@@ -878,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -913,18 +913,12 @@
     <xf numFmtId="2" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="25" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="26" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -937,9 +931,6 @@
     <xf numFmtId="2" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="27" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -964,6 +955,21 @@
     <xf numFmtId="1" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -972,21 +978,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1274,7 +1265,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,110 +1292,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="33" t="s">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="9" t="s">
         <v>40</v>
       </c>
@@ -1414,16 +1405,16 @@
       <c r="L3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="32"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
       <c r="S3" s="9" t="s">
         <v>53</v>
       </c>
@@ -1433,10 +1424,10 @@
       <c r="U3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
     </row>
     <row r="4" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1524,7 +1515,7 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -1537,12 +1528,12 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="13"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="12"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
     </row>
@@ -1555,7 +1546,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1568,12 +1559,12 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="13"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="12"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
     </row>
@@ -1582,29 +1573,29 @@
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
     </row>
     <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1615,7 +1606,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1628,12 +1619,12 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="13"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="12"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
     </row>
@@ -1646,7 +1637,7 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1659,12 +1650,12 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="13"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="12"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
     </row>
@@ -1677,7 +1668,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1690,12 +1681,12 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="13"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="12"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
     </row>
@@ -1708,7 +1699,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -1721,12 +1712,12 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="13"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="12"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
     </row>
@@ -1739,7 +1730,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -1752,12 +1743,12 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="13"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="12"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
     </row>
@@ -1770,7 +1761,7 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -1783,12 +1774,12 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="13"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="12"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
     </row>
@@ -1801,7 +1792,7 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -1814,41 +1805,41 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="13"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="12"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="18"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16"/>
     </row>
     <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1859,7 +1850,7 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -1872,12 +1863,12 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="13"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="12"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
     </row>
@@ -1890,7 +1881,7 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -1903,43 +1894,43 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="13"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="12"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
     </row>
     <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1950,7 +1941,7 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1963,12 +1954,12 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="13"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="12"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
     </row>
@@ -1981,7 +1972,7 @@
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -1994,12 +1985,12 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="13"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="12"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
     </row>
@@ -2012,7 +2003,7 @@
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2025,12 +2016,12 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="13"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="12"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
     </row>
@@ -2043,7 +2034,7 @@
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -2056,12 +2047,12 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="13"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="12"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
     </row>
@@ -2074,7 +2065,7 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -2087,12 +2078,12 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="13"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="12"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
     </row>
@@ -2105,7 +2096,7 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -2118,12 +2109,12 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="13"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="12"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
     </row>
@@ -2136,7 +2127,7 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2149,12 +2140,12 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="13"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="12"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
     </row>
@@ -2167,7 +2158,7 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2180,12 +2171,12 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="13"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="12"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
     </row>
@@ -2198,7 +2189,7 @@
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -2211,12 +2202,12 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="13"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="12"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
     </row>
@@ -2229,7 +2220,7 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2242,12 +2233,12 @@
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="13"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="12"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
     </row>
@@ -2260,7 +2251,7 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2273,130 +2264,110 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="13"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="12"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
     </row>
     <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
     </row>
     <row r="32" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="F33" s="35" t="s">
+      <c r="B33" s="27"/>
+      <c r="F33" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="M33" s="35" t="s">
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="M33" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="N33" s="35"/>
+      <c r="N33" s="27"/>
     </row>
     <row r="34" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="I35" s="36" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="I35" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="O35" s="36" t="s">
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="O35" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A18:B18"/>
@@ -2407,6 +2378,26 @@
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>

--- a/ReportWebSite/Reports1NF/Templates/zved_zvit.xlsx
+++ b/ReportWebSite/Reports1NF/Templates/zved_zvit.xlsx
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,72 +1903,72 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
     </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+    </row>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-    </row>
-    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
     </row>
     <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1999,7 +1999,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2030,7 +2030,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2061,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2092,7 +2092,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2123,7 +2123,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2154,7 +2154,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2180,12 +2180,12 @@
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
     </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2211,12 +2211,12 @@
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2247,7 +2247,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2370,7 +2370,7 @@
   <mergeCells count="30">
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="M2:M3"/>

--- a/ReportWebSite/Reports1NF/Templates/zved_zvit.xlsx
+++ b/ReportWebSite/Reports1NF/Templates/zved_zvit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Зведені показники надходжень від оренди та перерахування її частини до бюджету  
 за  9 місяців 2019 р.</t>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Списано заборгованості з орендної плати у звітному періоді, грн. (без ПДВ)</t>
+  </si>
+  <si>
+    <t>Від прибутку згідно з угодой</t>
   </si>
 </sst>
 </file>
@@ -221,143 +224,199 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="30">
@@ -878,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -955,29 +1014,32 @@
     <xf numFmtId="1" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,10 +1324,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,110 +1354,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="26" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="29" t="s">
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="9" t="s">
         <v>40</v>
       </c>
@@ -1405,16 +1467,16 @@
       <c r="L3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="26"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
       <c r="S3" s="9" t="s">
         <v>53</v>
       </c>
@@ -1424,10 +1486,10 @@
       <c r="U3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
     </row>
     <row r="4" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1934,72 +1996,72 @@
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
     </row>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+    </row>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-    </row>
-    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
     </row>
     <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2030,7 +2092,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2061,7 +2123,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2092,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2123,7 +2185,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2154,7 +2216,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2185,7 +2247,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2211,12 +2273,12 @@
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
     </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2242,12 +2304,12 @@
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
     </row>
-    <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2274,39 +2336,41 @@
       <c r="Y29" s="11"/>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="2">
+        <v>23</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+    </row>
+    <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-    </row>
-    <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="24"/>
@@ -2331,73 +2395,102 @@
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
     </row>
-    <row r="32" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+    <row r="32" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+    </row>
+    <row r="33" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="F33" s="27" t="s">
+      <c r="B34" s="32"/>
+      <c r="F34" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="M33" s="27" t="s">
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="M34" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N33" s="27"/>
-    </row>
-    <row r="34" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="28" t="s">
+      <c r="N34" s="32"/>
+    </row>
+    <row r="35" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="I35" s="28" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="I36" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="O35" s="28" t="s">
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="O36" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>

--- a/ReportWebSite/Reports1NF/Templates/zved_zvit.xlsx
+++ b/ReportWebSite/Reports1NF/Templates/zved_zvit.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\DKVSOURCESFINALEDITION_v20\ReportWebSite\Reports1NF\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DKVSOURCESFINALEDITION_v20\ReportWebSite\Reports1NF\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D22369-1A65-43FC-9211-059DDD1E20AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Зведені показники надходжень від оренди та перерахування її частини до бюджету  
 за  9 місяців 2019 р.</t>
@@ -37,9 +38,6 @@
     <t>Всього по місту</t>
   </si>
   <si>
-    <t>Начальник департаменту</t>
-  </si>
-  <si>
     <t>Назва сфери діяльності</t>
   </si>
   <si>
@@ -110,9 +108,6 @@
   </si>
   <si>
     <t>Невизначені</t>
-  </si>
-  <si>
-    <t>Площа на балансі, тис. кв. м</t>
   </si>
   <si>
     <t xml:space="preserve"> (підпис, прізвище, ініціали) </t>
@@ -207,13 +202,22 @@
   </si>
   <si>
     <t>Від прибутку згідно з угодой</t>
+  </si>
+  <si>
+    <t>Станом на: {{}}</t>
+  </si>
+  <si>
+    <t>Нежитлова площа на балансі, тис. кв. м( без земельних ділянок)</t>
+  </si>
+  <si>
+    <t>Директор департаменту</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -416,6 +420,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -576,6 +588,111 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -583,9 +700,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -598,9 +713,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -613,9 +726,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -628,9 +739,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -643,9 +752,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -658,9 +765,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -673,9 +778,155 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -691,243 +942,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -937,113 +951,119 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="26" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="27" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="29" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="28" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="27" fillId="28" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="22" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1320,21 +1340,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="4" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="6.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
@@ -1354,142 +1375,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="J2" s="30" t="s">
         <v>37</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>39</v>
       </c>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="29"/>
+      <c r="P3" s="27"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
       <c r="S3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="V3" s="30"/>
       <c r="W3" s="30"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
     </row>
     <row r="4" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1573,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1604,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1633,7 +1657,7 @@
     <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1664,7 +1688,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1695,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1726,7 +1750,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1757,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1788,7 +1812,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1819,7 +1843,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1850,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1908,7 +1932,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1939,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1970,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2000,8 +2024,8 @@
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>60</v>
+      <c r="B19" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -2028,10 +2052,10 @@
       <c r="Y19" s="11"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="24"/>
@@ -2061,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2092,7 +2116,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2123,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2154,7 +2178,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2185,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2216,7 +2240,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2247,7 +2271,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2278,7 +2302,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2309,7 +2333,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2340,7 +2364,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2367,10 +2391,10 @@
       <c r="Y30" s="11"/>
     </row>
     <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="24"/>
@@ -2426,62 +2450,41 @@
     </row>
     <row r="33" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="F34" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="M34" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" s="32"/>
+      <c r="A34" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="M34" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="28"/>
     </row>
     <row r="35" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="I36" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="O36" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
+      <c r="C36" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="I36" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="O36" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:X1"/>
+  <mergeCells count="31">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A31:B31"/>
@@ -2491,6 +2494,28 @@
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>

--- a/ReportWebSite/Reports1NF/Templates/zved_zvit.xlsx
+++ b/ReportWebSite/Reports1NF/Templates/zved_zvit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DKVSOURCESFINALEDITION_v20\ReportWebSite\Reports1NF\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D22369-1A65-43FC-9211-059DDD1E20AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54999F50-F1D9-4EED-AB31-B872D6F7CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Зведені показники надходжень від оренди та перерахування її частини до бюджету  
 за  9 місяців 2019 р.</t>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Шевченківський район</t>
-  </si>
-  <si>
-    <t>Невизначені</t>
   </si>
   <si>
     <t xml:space="preserve"> (підпис, прізвище, ініціали) </t>
@@ -1031,35 +1028,35 @@
     <xf numFmtId="49" fontId="4" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,7 +1341,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
@@ -1375,145 +1372,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="35" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+    </row>
+    <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-    </row>
-    <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="30" t="s">
         <v>36</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>37</v>
       </c>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
-      <c r="M2" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="27" t="s">
+      <c r="M2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="29"/>
+      <c r="N3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="27"/>
+      <c r="P3" s="29"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
       <c r="S3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="V3" s="30"/>
       <c r="W3" s="30"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
     </row>
     <row r="4" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1993,8 +1990,8 @@
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>28</v>
+      <c r="B18" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2020,72 +2017,72 @@
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+    </row>
+    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-    </row>
-    <row r="20" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
     </row>
     <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -2116,7 +2113,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2147,7 +2144,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -2178,7 +2175,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2209,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2240,7 +2237,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2271,7 +2268,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2297,12 +2294,12 @@
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2328,12 +2325,12 @@
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
     </row>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2360,39 +2357,37 @@
       <c r="Y29" s="11"/>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>23</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
+      <c r="A30" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
     </row>
     <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="17"/>
@@ -2419,103 +2414,74 @@
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
     </row>
-    <row r="32" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-    </row>
-    <row r="33" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="F34" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="M34" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="28"/>
-    </row>
-    <row r="35" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="I36" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="O36" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
+    <row r="32" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="F33" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="M33" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" s="34"/>
+    </row>
+    <row r="34" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="I35" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="O35" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="J2:L2"/>
     <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
